--- a/samples/5_styles/template.xlsx
+++ b/samples/5_styles/template.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Worksheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Worksheet 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
